--- a/BioSTEAM 2.x.x/biorefineries/lipidcane/results/Monte Carlo sugarcane.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane/results/Monte Carlo sugarcane.xlsx
@@ -61,39 +61,39 @@
     <t>Molecular sieve</t>
   </si>
   <si>
+    <t>Boiler turbogenerator</t>
+  </si>
+  <si>
     <t>Chilled water package</t>
   </si>
   <si>
-    <t>Boiler turbogenerator</t>
-  </si>
-  <si>
     <t>Cooling tower</t>
   </si>
   <si>
     <t>Process water center</t>
   </si>
   <si>
+    <t>Stream-s160</t>
+  </si>
+  <si>
+    <t>Stream-s161</t>
+  </si>
+  <si>
+    <t>Stream-cooling tower chemicals</t>
+  </si>
+  <si>
     <t>Stream-makeup water</t>
   </si>
   <si>
     <t>Stream-denaturant</t>
   </si>
   <si>
+    <t>Stream-enzyme</t>
+  </si>
+  <si>
     <t>Stream-lime</t>
   </si>
   <si>
-    <t>Stream-enzyme</t>
-  </si>
-  <si>
-    <t>Stream-s160</t>
-  </si>
-  <si>
-    <t>Stream-s161</t>
-  </si>
-  <si>
-    <t>Stream-cooling tower chemicals</t>
-  </si>
-  <si>
     <t>Stream-ethanol</t>
   </si>
   <si>
@@ -181,46 +181,46 @@
     <t>Column electricity rate [kW / kg/hr]</t>
   </si>
   <si>
+    <t>Baghouse bags base cost [USD]</t>
+  </si>
+  <si>
+    <t>Baghouse bags exponent</t>
+  </si>
+  <si>
+    <t>Boiler base cost [USD]</t>
+  </si>
+  <si>
+    <t>Boiler exponent</t>
+  </si>
+  <si>
+    <t>Boiler electricity rate [kW / kg/hr]</t>
+  </si>
+  <si>
+    <t>Deaerator base cost [USD]</t>
+  </si>
+  <si>
+    <t>Deaerator exponent</t>
+  </si>
+  <si>
+    <t>Amine addition pkg base cost [USD]</t>
+  </si>
+  <si>
+    <t>Amine addition pkg exponent</t>
+  </si>
+  <si>
+    <t>Hot process water softener system base cost [USD]</t>
+  </si>
+  <si>
+    <t>Hot process water softener system exponent</t>
+  </si>
+  <si>
+    <t>Turbogenerator base cost [USD]</t>
+  </si>
+  <si>
+    <t>Turbogenerator exponent</t>
+  </si>
+  <si>
     <t>Electricity rate [kW / kJ/hr]</t>
-  </si>
-  <si>
-    <t>Baghouse bags base cost [USD]</t>
-  </si>
-  <si>
-    <t>Baghouse bags exponent</t>
-  </si>
-  <si>
-    <t>Boiler base cost [USD]</t>
-  </si>
-  <si>
-    <t>Boiler exponent</t>
-  </si>
-  <si>
-    <t>Boiler electricity rate [kW / kg/hr]</t>
-  </si>
-  <si>
-    <t>Deaerator base cost [USD]</t>
-  </si>
-  <si>
-    <t>Deaerator exponent</t>
-  </si>
-  <si>
-    <t>Amine addition pkg base cost [USD]</t>
-  </si>
-  <si>
-    <t>Amine addition pkg exponent</t>
-  </si>
-  <si>
-    <t>Hot process water softener system base cost [USD]</t>
-  </si>
-  <si>
-    <t>Hot process water softener system exponent</t>
-  </si>
-  <si>
-    <t>Turbogenerator base cost [USD]</t>
-  </si>
-  <si>
-    <t>Turbogenerator exponent</t>
   </si>
   <si>
     <t>Electricity rate [kW / kmol/hr]</t>
@@ -731,9 +731,7 @@
       </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
-      <c r="AM1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
@@ -743,7 +741,9 @@
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
+      <c r="AW1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1" t="s">
@@ -777,10 +777,10 @@
         <v>22</v>
       </c>
       <c r="BR1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>24</v>
@@ -933,49 +933,49 @@
         <v>54</v>
       </c>
       <c r="AJ2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>68</v>
@@ -1205,52 +1205,52 @@
         <v>0.006655794067086878</v>
       </c>
       <c r="AJ4">
-        <v>1375000</v>
+        <v>106.8491863396745</v>
       </c>
       <c r="AK4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>-4.328359737776564E-05</v>
+        <v>28550000</v>
       </c>
       <c r="AM4">
-        <v>106.8491863396745</v>
+        <v>0.6</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0.005743948115934742</v>
       </c>
       <c r="AO4">
-        <v>28550000</v>
+        <v>305000</v>
       </c>
       <c r="AP4">
         <v>0.6</v>
       </c>
       <c r="AQ4">
-        <v>0.005743948115934742</v>
+        <v>40000</v>
       </c>
       <c r="AR4">
-        <v>305000</v>
+        <v>0.6</v>
       </c>
       <c r="AS4">
+        <v>78000</v>
+      </c>
+      <c r="AT4">
         <v>0.6</v>
       </c>
-      <c r="AT4">
-        <v>40000</v>
-      </c>
       <c r="AU4">
+        <v>9500000</v>
+      </c>
+      <c r="AV4">
         <v>0.6</v>
       </c>
-      <c r="AV4">
-        <v>78000</v>
-      </c>
       <c r="AW4">
-        <v>0.6</v>
+        <v>1375000</v>
       </c>
       <c r="AX4">
-        <v>9500000</v>
+        <v>0.7</v>
       </c>
       <c r="AY4">
-        <v>0.6</v>
+        <v>-4.328359737776564E-05</v>
       </c>
       <c r="AZ4">
         <v>1375000</v>
@@ -1295,28 +1295,28 @@
         <v>9.587050988660616E-05</v>
       </c>
       <c r="BN4">
+        <v>0.199375046806894</v>
+      </c>
+      <c r="BO4">
+        <v>4.995862254032183</v>
+      </c>
+      <c r="BP4">
+        <v>3</v>
+      </c>
+      <c r="BQ4">
         <v>0.000254</v>
       </c>
-      <c r="BO4">
+      <c r="BR4">
         <v>0.756</v>
       </c>
-      <c r="BP4">
+      <c r="BS4">
+        <v>0.03455</v>
+      </c>
+      <c r="BT4">
+        <v>0.5</v>
+      </c>
+      <c r="BU4">
         <v>0.077</v>
-      </c>
-      <c r="BQ4">
-        <v>0.5</v>
-      </c>
-      <c r="BR4">
-        <v>0.03455</v>
-      </c>
-      <c r="BS4">
-        <v>0.199375046806894</v>
-      </c>
-      <c r="BT4">
-        <v>4.995862254032183</v>
-      </c>
-      <c r="BU4">
-        <v>3</v>
       </c>
       <c r="BV4">
         <v>0.789</v>
@@ -1349,25 +1349,25 @@
         <v>0.85</v>
       </c>
       <c r="CF4">
-        <v>0.1195859128819938</v>
+        <v>0.1177528682799202</v>
       </c>
       <c r="CG4">
-        <v>65513626.17023955</v>
+        <v>65657604.31377867</v>
       </c>
       <c r="CH4">
-        <v>172402222.6569389</v>
+        <v>174443300.1044682</v>
       </c>
       <c r="CI4">
         <v>111970526.2150358</v>
       </c>
       <c r="CJ4">
-        <v>720922.9237370481</v>
+        <v>720922.9237370482</v>
       </c>
       <c r="CK4">
-        <v>48509.97163216988</v>
+        <v>48512.43283670145</v>
       </c>
       <c r="CL4">
-        <v>183441.7669329809</v>
+        <v>183439.3057284494</v>
       </c>
     </row>
   </sheetData>
@@ -1382,8 +1382,8 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AY1"/>
+    <mergeCell ref="AJ1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AZ1:BE1"/>
     <mergeCell ref="BF1:BM1"/>
     <mergeCell ref="CD1:CE1"/>
